--- a/data/magento/magento.xlsx
+++ b/data/magento/magento.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faridaymmeli/Desktop/datateam2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thonm\ideaProjects\team2project\data\magento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9680DE2F-14A2-BE41-A186-F8CEB0A23B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0151F-2BC1-4435-8ED6-01AF66A7302B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8AB7E0B6-9E77-4CA6-8218-722F00555F19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8AB7E0B6-9E77-4CA6-8218-722F00555F19}"/>
   </bookViews>
   <sheets>
-    <sheet name="dorina" sheetId="1" r:id="rId1"/>
+    <sheet name="magento" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>abcd1234</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>key</t>
   </si>
@@ -53,7 +50,31 @@
     <t>password</t>
   </si>
   <si>
-    <t>tomn@gmail.com</t>
+    <t>thonmoy.b@icloud.com</t>
+  </si>
+  <si>
+    <t>password&amp;1234</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>thonmoy</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>bhattacharjee</t>
+  </si>
+  <si>
+    <t>customer login</t>
+  </si>
+  <si>
+    <t>home page</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -416,39 +437,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334251DB-3C6A-40BC-B49A-E0CB228B3033}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/magento/magento.xlsx
+++ b/data/magento/magento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thonm\ideaProjects\team2project\data\magento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0151F-2BC1-4435-8ED6-01AF66A7302B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092DFF47-BF02-4055-BE2C-E60BCEB21A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8AB7E0B6-9E77-4CA6-8218-722F00555F19}"/>
+    <workbookView xWindow="1150" yWindow="3960" windowWidth="16920" windowHeight="10360" xr2:uid="{8AB7E0B6-9E77-4CA6-8218-722F00555F19}"/>
   </bookViews>
   <sheets>
     <sheet name="magento" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
